--- a/data/rainfall_2006.xlsx
+++ b/data/rainfall_2006.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF6B45-D484-4475-835D-6928EC9697D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C055B8-9E3E-40F3-B65C-44DD770ACF97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="40">
   <si>
     <t>0.1</t>
   </si>
@@ -134,14 +134,41 @@
   </si>
   <si>
     <t>8.9</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <r>
+      <t>Precipitación: l/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -472,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C330" sqref="C330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,25 +510,25 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>38718</v>
+    <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>38719</v>
+        <v>38718</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>38720</v>
+        <v>38719</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -509,7 +536,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>38721</v>
+        <v>38720</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -517,71 +544,71 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>38724</v>
+        <v>38723</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>38725</v>
+        <v>38724</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>38726</v>
+        <v>38725</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>38727</v>
+        <v>38726</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>38728</v>
+        <v>38727</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>38729</v>
+        <v>38728</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>38730</v>
+        <v>38729</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -589,7 +616,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>38731</v>
+        <v>38730</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -597,15 +624,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>38732</v>
+        <v>38731</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>38733</v>
+        <v>38732</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -613,23 +640,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>38734</v>
+        <v>38733</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>38735</v>
+        <v>38734</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>38736</v>
+        <v>38735</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -637,7 +664,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>38737</v>
+        <v>38736</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -645,31 +672,31 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>38738</v>
+        <v>38737</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>38739</v>
+        <v>38738</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>38740</v>
+        <v>38739</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>38741</v>
+        <v>38740</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -677,7 +704,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>38742</v>
+        <v>38741</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -685,23 +712,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>38743</v>
+        <v>38742</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>38744</v>
+        <v>38743</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>38745</v>
+        <v>38744</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -709,23 +736,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>38746</v>
+        <v>38745</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>38747</v>
+        <v>38746</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>38748</v>
+        <v>38747</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -733,7 +760,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>38749</v>
+        <v>38748</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -741,7 +768,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>38750</v>
+        <v>38749</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -749,7 +776,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>38751</v>
+        <v>38750</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -757,7 +784,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>38752</v>
+        <v>38751</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
@@ -765,7 +792,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>38753</v>
+        <v>38752</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -773,7 +800,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>38754</v>
+        <v>38753</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -781,7 +808,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38755</v>
+        <v>38754</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -789,7 +816,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38756</v>
+        <v>38755</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
@@ -797,7 +824,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38757</v>
+        <v>38756</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -805,7 +832,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>38758</v>
+        <v>38757</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
@@ -813,7 +840,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>38759</v>
+        <v>38758</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -821,7 +848,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>38760</v>
+        <v>38759</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -829,7 +856,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>38761</v>
+        <v>38760</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -837,7 +864,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>38762</v>
+        <v>38761</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
@@ -845,7 +872,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>38763</v>
+        <v>38762</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
@@ -853,45 +880,45 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>38764</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>38763</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>38765</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38764</v>
+      </c>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>38766</v>
+        <v>38765</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>38767</v>
+        <v>38766</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>38768</v>
+        <v>38767</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>38769</v>
+        <v>38768</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
@@ -899,243 +926,243 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>38770</v>
+        <v>38769</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>38771</v>
+        <v>38770</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>38772</v>
+        <v>38771</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>38773</v>
+        <v>38772</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>38774</v>
+        <v>38773</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>38775</v>
+        <v>38774</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>38776</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>38775</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>38777</v>
+        <v>38776</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>38778</v>
+        <v>38777</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>38779</v>
+        <v>38778</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>38780</v>
+        <v>38779</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>38781</v>
+        <v>38780</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>38782</v>
+        <v>38781</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>38783</v>
+        <v>38782</v>
       </c>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>38784</v>
+        <v>38783</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>38785</v>
+        <v>38784</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>38786</v>
+        <v>38785</v>
       </c>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>38787</v>
+        <v>38786</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>38788</v>
+        <v>38787</v>
       </c>
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>38789</v>
+        <v>38788</v>
       </c>
       <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>38790</v>
+        <v>38789</v>
       </c>
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>38791</v>
+        <v>38790</v>
       </c>
       <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>38792</v>
+        <v>38791</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>38793</v>
+        <v>38792</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>38794</v>
+        <v>38793</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>38795</v>
+        <v>38794</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>38796</v>
+        <v>38795</v>
       </c>
       <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>38797</v>
+        <v>38796</v>
       </c>
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>38800</v>
+        <v>38797</v>
       </c>
       <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>38801</v>
+        <v>38800</v>
       </c>
       <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>38802</v>
+        <v>38801</v>
       </c>
       <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>38803</v>
+        <v>38802</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>38804</v>
+        <v>38803</v>
       </c>
       <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>38805</v>
+        <v>38804</v>
       </c>
       <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>38806</v>
+        <v>38805</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>38807</v>
+        <v>38806</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>38808</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38807</v>
+      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>38809</v>
+        <v>38808</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1</v>
@@ -1143,7 +1170,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>38810</v>
+        <v>38809</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1</v>
@@ -1151,7 +1178,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>38811</v>
+        <v>38810</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -1159,7 +1186,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>38812</v>
+        <v>38811</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1</v>
@@ -1167,7 +1194,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>38813</v>
+        <v>38812</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>1</v>
@@ -1175,7 +1202,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>38814</v>
+        <v>38813</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>1</v>
@@ -1183,7 +1210,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>38815</v>
+        <v>38814</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>1</v>
@@ -1191,7 +1218,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>38816</v>
+        <v>38815</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
@@ -1199,7 +1226,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>38817</v>
+        <v>38816</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1</v>
@@ -1207,7 +1234,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>38818</v>
+        <v>38817</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>1</v>
@@ -1215,7 +1242,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>38819</v>
+        <v>38818</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>1</v>
@@ -1223,7 +1250,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>38820</v>
+        <v>38819</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
@@ -1231,23 +1258,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>38821</v>
+        <v>38820</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>38822</v>
+        <v>38821</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>38823</v>
+        <v>38822</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>1</v>
@@ -1255,7 +1282,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>38824</v>
+        <v>38823</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>1</v>
@@ -1263,23 +1290,23 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>38825</v>
+        <v>38824</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>38826</v>
+        <v>38825</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>38827</v>
+        <v>38826</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -1287,27 +1314,27 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>38828</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>38827</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>38829</v>
+        <v>38828</v>
       </c>
       <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>38830</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38829</v>
+      </c>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>38831</v>
+        <v>38830</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>1</v>
@@ -1315,23 +1342,23 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>38832</v>
+        <v>38831</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>38833</v>
+        <v>38832</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>38834</v>
+        <v>38833</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>1</v>
@@ -1339,7 +1366,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>38835</v>
+        <v>38834</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>1</v>
@@ -1347,7 +1374,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>38836</v>
+        <v>38835</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>1</v>
@@ -1355,7 +1382,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>38837</v>
+        <v>38836</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
@@ -1363,7 +1390,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>38838</v>
+        <v>38837</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>1</v>
@@ -1371,7 +1398,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>38839</v>
+        <v>38838</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>1</v>
@@ -1379,39 +1406,39 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>38840</v>
+        <v>38839</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>38841</v>
+        <v>38840</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>38842</v>
+        <v>38841</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>38843</v>
+        <v>38842</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>38844</v>
+        <v>38843</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>1</v>
@@ -1419,7 +1446,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>38845</v>
+        <v>38844</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>1</v>
@@ -1427,7 +1454,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>38846</v>
+        <v>38845</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>1</v>
@@ -1435,7 +1462,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>38847</v>
+        <v>38846</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>1</v>
@@ -1443,23 +1470,23 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>38848</v>
+        <v>38847</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>38849</v>
+        <v>38848</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>38850</v>
+        <v>38849</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>1</v>
@@ -1467,7 +1494,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>38851</v>
+        <v>38850</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>1</v>
@@ -1475,7 +1502,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>38852</v>
+        <v>38851</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>1</v>
@@ -1483,7 +1510,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>38853</v>
+        <v>38852</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>1</v>
@@ -1491,7 +1518,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>38854</v>
+        <v>38853</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>1</v>
@@ -1499,7 +1526,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>38855</v>
+        <v>38854</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>1</v>
@@ -1507,7 +1534,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>38856</v>
+        <v>38855</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>1</v>
@@ -1515,7 +1542,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>38857</v>
+        <v>38856</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>1</v>
@@ -1523,7 +1550,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>38858</v>
+        <v>38857</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
@@ -1531,7 +1558,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>38859</v>
+        <v>38858</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>1</v>
@@ -1539,7 +1566,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>38860</v>
+        <v>38859</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>1</v>
@@ -1547,7 +1574,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>38861</v>
+        <v>38860</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>1</v>
@@ -1555,7 +1582,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>38862</v>
+        <v>38861</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -1563,61 +1590,61 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>38863</v>
-      </c>
-      <c r="B144" s="2"/>
+        <v>38862</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>38864</v>
+        <v>38863</v>
       </c>
       <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>38865</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38864</v>
+      </c>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>38866</v>
-      </c>
-      <c r="B147" s="2"/>
+        <v>38865</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>38867</v>
+        <v>38866</v>
       </c>
       <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>38868</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38867</v>
+      </c>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>38869</v>
-      </c>
-      <c r="B150" s="2"/>
+        <v>38868</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>38870</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38869</v>
+      </c>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>38871</v>
+        <v>38870</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>1</v>
@@ -1625,7 +1652,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>38872</v>
+        <v>38871</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>1</v>
@@ -1633,87 +1660,87 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>38873</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>38872</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>38874</v>
+        <v>38873</v>
       </c>
       <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>38875</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>38874</v>
+      </c>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>38876</v>
-      </c>
-      <c r="B157" s="2"/>
+        <v>38875</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>38883</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>38876</v>
+      </c>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>38884</v>
+        <v>38883</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>38885</v>
+        <v>38884</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>38886</v>
+        <v>38885</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>38887</v>
+        <v>38886</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>38888</v>
-      </c>
-      <c r="B163" s="2"/>
+        <v>38887</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>38889</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38888</v>
+      </c>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>38890</v>
+        <v>38889</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>1</v>
@@ -1721,7 +1748,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>38891</v>
+        <v>38890</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>1</v>
@@ -1729,7 +1756,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>38892</v>
+        <v>38891</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>1</v>
@@ -1737,7 +1764,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>38893</v>
+        <v>38892</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>1</v>
@@ -1745,7 +1772,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>38894</v>
+        <v>38893</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>1</v>
@@ -1753,7 +1780,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>38895</v>
+        <v>38894</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>1</v>
@@ -1761,7 +1788,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>38896</v>
+        <v>38895</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>1</v>
@@ -1769,7 +1796,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>38899</v>
+        <v>38896</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>1</v>
@@ -1777,7 +1804,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>38900</v>
+        <v>38899</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>1</v>
@@ -1785,7 +1812,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>38904</v>
+        <v>38900</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>1</v>
@@ -1793,7 +1820,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>38905</v>
+        <v>38904</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>1</v>
@@ -1801,7 +1828,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>38906</v>
+        <v>38905</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>1</v>
@@ -1809,7 +1836,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>38907</v>
+        <v>38906</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>1</v>
@@ -1817,7 +1844,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>38908</v>
+        <v>38907</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>1</v>
@@ -1825,57 +1852,57 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>38909</v>
-      </c>
-      <c r="B179" s="2"/>
+        <v>38908</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>38910</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38909</v>
+      </c>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>38911</v>
+        <v>38910</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>38912</v>
-      </c>
-      <c r="B182" s="2"/>
+        <v>38911</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>38913</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38912</v>
+      </c>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>38914</v>
-      </c>
-      <c r="B184" s="2"/>
+        <v>38913</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>38915</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38914</v>
+      </c>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>38917</v>
+        <v>38915</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>1</v>
@@ -1883,21 +1910,21 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>38918</v>
-      </c>
-      <c r="B187" s="2"/>
+        <v>38917</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>38919</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38918</v>
+      </c>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>38920</v>
+        <v>38919</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>1</v>
@@ -1905,27 +1932,27 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>38921</v>
-      </c>
-      <c r="B190" s="2"/>
+        <v>38920</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>38922</v>
+        <v>38921</v>
       </c>
       <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>38923</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38922</v>
+      </c>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>38924</v>
+        <v>38923</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>1</v>
@@ -1933,7 +1960,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>38925</v>
+        <v>38924</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>1</v>
@@ -1941,7 +1968,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>38926</v>
+        <v>38925</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>1</v>
@@ -1949,7 +1976,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>38927</v>
+        <v>38926</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>1</v>
@@ -1957,7 +1984,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>38928</v>
+        <v>38927</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>1</v>
@@ -1965,7 +1992,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>38929</v>
+        <v>38928</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>1</v>
@@ -1973,7 +2000,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>38930</v>
+        <v>38929</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>1</v>
@@ -1981,7 +2008,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>38931</v>
+        <v>38930</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>1</v>
@@ -1989,7 +2016,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>38932</v>
+        <v>38931</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>1</v>
@@ -1997,7 +2024,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>38933</v>
+        <v>38932</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>1</v>
@@ -2005,7 +2032,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>38934</v>
+        <v>38933</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>1</v>
@@ -2013,7 +2040,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>38935</v>
+        <v>38934</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>1</v>
@@ -2021,7 +2048,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>38936</v>
+        <v>38935</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>1</v>
@@ -2029,7 +2056,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>38937</v>
+        <v>38936</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>1</v>
@@ -2037,7 +2064,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>38938</v>
+        <v>38937</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>1</v>
@@ -2045,7 +2072,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>38939</v>
+        <v>38938</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>1</v>
@@ -2053,7 +2080,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>38940</v>
+        <v>38939</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>1</v>
@@ -2061,7 +2088,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>38941</v>
+        <v>38940</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>1</v>
@@ -2069,7 +2096,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>38942</v>
+        <v>38941</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>1</v>
@@ -2077,7 +2104,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>38943</v>
+        <v>38942</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>1</v>
@@ -2085,7 +2112,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>38945</v>
+        <v>38943</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>1</v>
@@ -2093,23 +2120,23 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>38946</v>
+        <v>38945</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>38947</v>
+        <v>38946</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>38948</v>
+        <v>38947</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>1</v>
@@ -2117,7 +2144,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>38950</v>
+        <v>38948</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>1</v>
@@ -2125,7 +2152,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>38953</v>
+        <v>38950</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>1</v>
@@ -2133,7 +2160,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>38954</v>
+        <v>38953</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>1</v>
@@ -2141,7 +2168,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>38955</v>
+        <v>38954</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>1</v>
@@ -2149,7 +2176,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>38956</v>
+        <v>38955</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>1</v>
@@ -2157,7 +2184,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>38957</v>
+        <v>38956</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>1</v>
@@ -2165,21 +2192,21 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>38958</v>
-      </c>
-      <c r="B223" s="2"/>
+        <v>38957</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>38959</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>38958</v>
+      </c>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>38960</v>
+        <v>38959</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>1</v>
@@ -2187,7 +2214,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>38961</v>
+        <v>38960</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>1</v>
@@ -2195,7 +2222,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>38962</v>
+        <v>38961</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>1</v>
@@ -2203,7 +2230,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>38963</v>
+        <v>38962</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>1</v>
@@ -2211,7 +2238,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>38965</v>
+        <v>38963</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>1</v>
@@ -2219,23 +2246,23 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>38966</v>
+        <v>38965</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>38967</v>
+        <v>38966</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>38968</v>
+        <v>38967</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>1</v>
@@ -2243,7 +2270,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>38969</v>
+        <v>38968</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>1</v>
@@ -2251,7 +2278,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>38970</v>
+        <v>38969</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>1</v>
@@ -2259,7 +2286,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>38971</v>
+        <v>38970</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>1</v>
@@ -2267,39 +2294,39 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>38972</v>
+        <v>38971</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>38973</v>
+        <v>38972</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>38974</v>
+        <v>38973</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>38975</v>
+        <v>38974</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>38976</v>
+        <v>38975</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>1</v>
@@ -2307,7 +2334,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>38977</v>
+        <v>38976</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>1</v>
@@ -2315,7 +2342,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>38978</v>
+        <v>38977</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>1</v>
@@ -2323,7 +2350,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>38979</v>
+        <v>38978</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>1</v>
@@ -2331,7 +2358,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>38980</v>
+        <v>38979</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
@@ -2339,47 +2366,47 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>38981</v>
+        <v>38980</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>38982</v>
+        <v>38981</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>38983</v>
+        <v>38982</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>38984</v>
+        <v>38983</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>38985</v>
+        <v>38984</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>38986</v>
+        <v>38985</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>1</v>
@@ -2387,7 +2414,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>38987</v>
+        <v>38986</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>1</v>
@@ -2395,7 +2422,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>38988</v>
+        <v>38987</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>1</v>
@@ -2403,7 +2430,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>38989</v>
+        <v>38988</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>1</v>
@@ -2411,7 +2438,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>38990</v>
+        <v>38989</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>1</v>
@@ -2419,7 +2446,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>38991</v>
+        <v>38990</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1</v>
@@ -2427,31 +2454,31 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>38992</v>
+        <v>38991</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>38993</v>
+        <v>38992</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>38994</v>
+        <v>38993</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>38995</v>
+        <v>38994</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1</v>
@@ -2459,7 +2486,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>38996</v>
+        <v>38995</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1</v>
@@ -2467,7 +2494,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>38997</v>
+        <v>38996</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>1</v>
@@ -2475,7 +2502,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>38998</v>
+        <v>38997</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1</v>
@@ -2483,7 +2510,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>38999</v>
+        <v>38998</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>1</v>
@@ -2491,7 +2518,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>39000</v>
+        <v>38999</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>1</v>
@@ -2499,23 +2526,23 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>39001</v>
+        <v>39000</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>39002</v>
+        <v>39001</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>39003</v>
+        <v>39002</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>1</v>
@@ -2523,85 +2550,85 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>39004</v>
-      </c>
-      <c r="B268" s="2"/>
+        <v>39003</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>39009</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>39004</v>
+      </c>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>39010</v>
+        <v>39009</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>39011</v>
+        <v>39010</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>39012</v>
+        <v>39011</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>39013</v>
+        <v>39012</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>39014</v>
+        <v>39013</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>39015</v>
+        <v>39014</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>39016</v>
+        <v>39015</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>39017</v>
+        <v>39016</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>39018</v>
+        <v>39017</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>1</v>
@@ -2609,7 +2636,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>39019</v>
+        <v>39018</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>1</v>
@@ -2617,7 +2644,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>39020</v>
+        <v>39019</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>1</v>
@@ -2625,7 +2652,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>39021</v>
+        <v>39020</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>1</v>
@@ -2633,7 +2660,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>39022</v>
+        <v>39021</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>1</v>
@@ -2641,71 +2668,71 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>39023</v>
+        <v>39022</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>39024</v>
+        <v>39023</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>39025</v>
+        <v>39024</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>39026</v>
+        <v>39025</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>39027</v>
+        <v>39026</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>39028</v>
+        <v>39027</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>39029</v>
+        <v>39028</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>39030</v>
+        <v>39029</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>39031</v>
+        <v>39030</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>1</v>
@@ -2713,7 +2740,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>39032</v>
+        <v>39031</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>1</v>
@@ -2721,7 +2748,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>39033</v>
+        <v>39032</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>1</v>
@@ -2729,7 +2756,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>39034</v>
+        <v>39033</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>1</v>
@@ -2737,7 +2764,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>39035</v>
+        <v>39034</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>1</v>
@@ -2745,47 +2772,47 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>39036</v>
+        <v>39035</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>39037</v>
+        <v>39036</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>39038</v>
+        <v>39037</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>39039</v>
+        <v>39038</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>39040</v>
+        <v>39039</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>39041</v>
+        <v>39040</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>1</v>
@@ -2793,7 +2820,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>39042</v>
+        <v>39041</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>1</v>
@@ -2801,7 +2828,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>39043</v>
+        <v>39042</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>1</v>
@@ -2809,63 +2836,63 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>39044</v>
+        <v>39043</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>39045</v>
+        <v>39044</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>39046</v>
+        <v>39045</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>39047</v>
+        <v>39046</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>39048</v>
+        <v>39047</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>39049</v>
+        <v>39048</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>39050</v>
+        <v>39049</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>39051</v>
+        <v>39050</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>1</v>
@@ -2873,7 +2900,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>39052</v>
+        <v>39051</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>1</v>
@@ -2881,71 +2908,71 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>39053</v>
+        <v>39052</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>39054</v>
+        <v>39053</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>39055</v>
+        <v>39054</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>39056</v>
+        <v>39055</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>39057</v>
+        <v>39056</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>39058</v>
+        <v>39057</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>39059</v>
+        <v>39058</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>39060</v>
+        <v>39059</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>39061</v>
+        <v>39060</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>1</v>
@@ -2953,7 +2980,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>39062</v>
+        <v>39061</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>1</v>
@@ -2961,7 +2988,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>39063</v>
+        <v>39062</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>1</v>
@@ -2969,7 +2996,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>39064</v>
+        <v>39063</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>1</v>
@@ -2977,7 +3004,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>39065</v>
+        <v>39064</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>1</v>
@@ -2985,7 +3012,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>39066</v>
+        <v>39065</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>1</v>
@@ -2993,7 +3020,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>39067</v>
+        <v>39066</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>1</v>
@@ -3001,7 +3028,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>39068</v>
+        <v>39067</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>1</v>
@@ -3009,7 +3036,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>39069</v>
+        <v>39068</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1</v>
@@ -3017,7 +3044,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>39070</v>
+        <v>39069</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>1</v>
@@ -3025,7 +3052,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>39071</v>
+        <v>39070</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>1</v>
@@ -3033,7 +3060,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>39072</v>
+        <v>39071</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>1</v>
@@ -3041,7 +3068,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>39073</v>
+        <v>39072</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>1</v>
@@ -3049,7 +3076,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>39074</v>
+        <v>39073</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>1</v>
@@ -3057,7 +3084,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>39075</v>
+        <v>39074</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>1</v>
@@ -3065,7 +3092,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>39076</v>
+        <v>39075</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>1</v>
@@ -3073,7 +3100,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>39077</v>
+        <v>39076</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>1</v>
@@ -3081,7 +3108,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>39078</v>
+        <v>39077</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1</v>
@@ -3089,7 +3116,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>39079</v>
+        <v>39078</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>1</v>
@@ -3097,7 +3124,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>39080</v>
+        <v>39079</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>1</v>
@@ -3105,7 +3132,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>39081</v>
+        <v>39080</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>1</v>
@@ -3113,9 +3140,17 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
+        <v>39081</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>39082</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B343" s="2" t="s">
         <v>1</v>
       </c>
     </row>
